--- a/Database/Merch.xlsx
+++ b/Database/Merch.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Order Id</t>
     <phoneticPr fontId="1"/>
@@ -37,35 +37,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>93616598-94e1-4b54-ae94-ccce8393d8bb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HERO-2020 HOODIES</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>brock.tomlinson@ucalgary.ca</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2509466196</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Brock</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Software</t>
+    <t>Shipping Details</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -370,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="8.38" customWidth="1"/>
@@ -393,40 +365,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>36.0099983215332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>36.0099983215332</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -435,13 +373,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F1"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="8.38" customWidth="1"/>
+    <col min="1" max="6" width="8.38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,22 +395,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Merch.xlsx
+++ b/Database/Merch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="orders" sheetId="1" r:id="rId1"/>
-    <sheet name="customer_info" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="orders"/>
+    <sheet r:id="rId2" sheetId="2" name="customer_info"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -18,33 +18,28 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Order Id</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Email</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Phone</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Subteam</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Shipping Details</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,14 +66,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -89,10 +96,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -119,82 +126,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -206,131 +213,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:satMod val="103000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:satMod val="110000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:satMod val="170000"/>
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:tint val="93000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="103000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:tint val="98000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="120000"/>
-                <a:shade val="63000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -341,66 +375,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.38" customWidth="1"/>
+    <col min="1" max="1" style="2" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="8.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:F1"/>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.38" customWidth="1"/>
+    <col min="1" max="1" style="2" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="8.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database/Merch.xlsx
+++ b/Database/Merch.xlsx
@@ -15,12 +15,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Order Id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Item Id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Quantity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Colour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Email</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -78,6 +98,10 @@
   </si>
   <si>
     <t>Phone Number (shipping)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Additional Notes</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -382,13 +406,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="8.38" customWidth="1"/>
+    <col min="1" max="6" width="8.38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,6 +427,9 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -413,60 +440,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="8.38" customWidth="1"/>
+    <col min="1" max="17" width="8.38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Merch.xlsx
+++ b/Database/Merch.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
   <si>
     <t>Order Id</t>
     <phoneticPr fontId="1"/>
@@ -102,6 +102,90 @@
   </si>
   <si>
     <t>Additional Notes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c0bb3a86-83e6-4aeb-ac38-5034e2793272</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Floof Hoodie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Floof CrewNeck</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Floof CrewNeck by Brock the One and Only Rockstar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brock.tomlinson@ucalgarybaja.ca</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2509466196</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Brock Tomlinson</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Software</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2e61f3cd-583f-4af5-9718-486c571b54d2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4135 University Ave NW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>447</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calgary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alberta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T3B 6K8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -406,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F23"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="6" width="8.38" customWidth="1"/>
@@ -432,6 +516,446 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>49.9900016784668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>49.9900016784668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -440,7 +964,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="17" width="8.38" customWidth="1"/>
@@ -499,6 +1023,106 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>472.38446044921875</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>472.38446044921875</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Database/Merch.xlsx
+++ b/Database/Merch.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="44">
   <si>
     <t>Order Id</t>
     <phoneticPr fontId="1"/>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>T3B 6K8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ea52f74b-7b77-4248-9773-3898b445486d</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -490,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F34"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="6" width="8.38" customWidth="1"/>
@@ -956,6 +960,226 @@
         <v>39.9900016784668</v>
       </c>
     </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>49.9900016784668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34">
+        <v>39.9900016784668</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -964,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="17" width="8.38" customWidth="1"/>
@@ -1123,6 +1347,56 @@
         <v>36</v>
       </c>
     </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>472.38446044921875</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
